--- a/批量导入模板/期末班主任考核模板.xlsx
+++ b/批量导入模板/期末班主任考核模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA30A5-DDBF-482E-928F-92ECA8E7D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D5943-BBC5-48DD-A7A1-9E67CEA2C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28260" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1110" windowWidth="28260" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,107 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.27</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.28</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.29</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.30</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.31</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.32</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.33</t>
+  </si>
+  <si>
+    <t>2024-2025上学期</t>
+  </si>
+  <si>
+    <t>考核类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022级班主任</t>
+  </si>
+  <si>
+    <t>2022级班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭环式安全管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
     <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>测试6</t>
-  </si>
-  <si>
-    <t>测试7</t>
-  </si>
-  <si>
-    <t>测试8</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.27</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.28</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.29</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.30</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.31</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.32</t>
-  </si>
-  <si>
-    <t>2025.02.19-04.33</t>
-  </si>
-  <si>
-    <t>2024-2025上学期</t>
-  </si>
-  <si>
-    <t>考核类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022级班主任</t>
-  </si>
-  <si>
-    <t>2022级班主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭环式安全管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,48 +489,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -555,19 +547,19 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -584,19 +576,19 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -616,19 +608,19 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -648,19 +640,19 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -677,19 +669,19 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -706,19 +698,19 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -735,19 +727,19 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -759,6 +751,64 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="I9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I11" s="1">
         <v>32</v>
       </c>
     </row>
